--- a/input/modell_data.xlsx
+++ b/input/modell_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga46gup\Modelle\d2ix\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu47zip\Modelle\d2ix\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32052" windowHeight="13632" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32056" windowHeight="13636" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="demand" sheetId="3" r:id="rId1"/>
@@ -461,7 +461,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -558,11 +558,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -590,12 +612,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -610,9 +626,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -704,12 +717,6 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -722,9 +729,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -742,12 +746,6 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -793,6 +791,60 @@
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1259,7 +1311,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.21875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" style="6" bestFit="1" customWidth="1"/>
@@ -1271,26 +1323,26 @@
     <col min="8" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1307,7 +1359,7 @@
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="38">
         <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1330,7 +1382,7 @@
       <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="39">
         <v>80</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1347,13 +1399,13 @@
       <c r="B4" s="1">
         <v>2030</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="65" t="s">
         <v>75</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="39">
         <v>100</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1395,66 +1447,66 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" style="75" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="67" customWidth="1"/>
     <col min="3" max="16384" width="11.5546875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="42" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="66" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="66" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="66" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="66" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="66" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="66" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1462,39 +1514,39 @@
       <c r="A8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="66" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="66" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="66" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="66" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="66" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1502,71 +1554,71 @@
       <c r="A13" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="66" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="66" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="66" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="66" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="66" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="66" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="66" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="66" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="66" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1574,7 +1626,7 @@
       <c r="A22" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="66" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1582,15 +1634,15 @@
       <c r="A23" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="66" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="66" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1598,7 +1650,7 @@
       <c r="A25" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="66" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1606,7 +1658,7 @@
       <c r="A26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="66" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1614,7 +1666,7 @@
       <c r="A27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="66" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1622,7 +1674,7 @@
       <c r="A28" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="66" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1630,7 +1682,7 @@
       <c r="A29" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="66" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1638,39 +1690,39 @@
       <c r="A30" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="74" t="s">
+      <c r="B30" s="66" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="66" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="66" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="66" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="66" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1705,41 +1757,41 @@
   <dimension ref="A1:AQ26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AL3" sqref="AL3"/>
+      <selection activeCell="AW19" sqref="AW19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" style="57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.44140625" style="56" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" style="56" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.44140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.109375" style="56" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.44140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="3.5546875" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.44140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" style="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.44140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.44140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="3.5546875" style="52" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.21875" style="11" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.5546875" style="10" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.44140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.44140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.44140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.44140625" style="39" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="4.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.5546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="3.5546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.5546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="3.5546875" style="53" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.44140625" style="18" bestFit="1" customWidth="1"/>
     <col min="27" max="29" width="4.44140625" style="10" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="5.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.5546875" style="18" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="3.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.5546875" style="18" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="3.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="3.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.5546875" style="18" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="3.5546875" style="10" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="3.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="4.44140625" style="10" bestFit="1" customWidth="1"/>
@@ -1749,369 +1801,369 @@
     <col min="42" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="16" customFormat="1" ht="154.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:43" s="14" customFormat="1" ht="155" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="47" t="s">
+      <c r="U1" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="V1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="W1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="61" t="s">
+      <c r="X1" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="Y1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="29" t="s">
+      <c r="Z1" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AA1" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="AB1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="29" t="s">
+      <c r="AC1" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="AD1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AE1" s="32" t="s">
+      <c r="AE1" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AF1" s="30" t="s">
+      <c r="AF1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AG1" s="32" t="s">
+      <c r="AG1" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AH1" s="30" t="s">
+      <c r="AH1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AI1" s="32" t="s">
+      <c r="AI1" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AJ1" s="30" t="s">
+      <c r="AJ1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AK1" s="47" t="s">
+      <c r="AK1" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" s="30" t="s">
+      <c r="AL1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AM1" s="30" t="s">
+      <c r="AM1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AN1" s="30" t="s">
+      <c r="AN1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AO1" s="29" t="s">
+      <c r="AO1" s="26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="1:43" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="80">
         <v>2010</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="81">
         <v>2030</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="82">
         <v>1000</v>
       </c>
-      <c r="F2" s="67">
-        <v>0</v>
-      </c>
-      <c r="G2" s="54">
+      <c r="F2" s="83">
+        <v>0</v>
+      </c>
+      <c r="G2" s="84">
         <v>35</v>
       </c>
-      <c r="H2" s="68">
-        <v>0</v>
-      </c>
-      <c r="I2" s="68">
-        <v>0</v>
-      </c>
-      <c r="J2" s="52">
+      <c r="H2" s="61">
+        <v>0</v>
+      </c>
+      <c r="I2" s="61">
+        <v>0</v>
+      </c>
+      <c r="J2" s="85">
         <v>33.287999999999997</v>
       </c>
-      <c r="K2" s="71">
-        <v>0</v>
-      </c>
-      <c r="L2" s="72">
-        <v>0</v>
-      </c>
-      <c r="M2" s="53">
+      <c r="K2" s="61">
+        <v>0</v>
+      </c>
+      <c r="L2" s="62">
+        <v>0</v>
+      </c>
+      <c r="M2" s="82">
         <v>10</v>
       </c>
-      <c r="N2" s="53">
+      <c r="N2" s="82">
         <v>1</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="O2" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="S2" s="42">
+      <c r="S2" s="38">
         <v>0.34</v>
       </c>
-      <c r="T2" s="71">
-        <v>0</v>
-      </c>
-      <c r="U2" s="72">
-        <v>0</v>
-      </c>
-      <c r="V2" s="42"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="13">
+      <c r="T2" s="61">
+        <v>0.01</v>
+      </c>
+      <c r="U2" s="62">
+        <v>0</v>
+      </c>
+      <c r="V2" s="38"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="91">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="92">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="91">
         <v>0.2</v>
       </c>
-      <c r="AB2" s="13">
+      <c r="AB2" s="91">
         <v>0.72</v>
       </c>
-      <c r="AC2" s="18">
+      <c r="AC2" s="93">
         <v>1</v>
       </c>
-      <c r="AD2" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="13">
+      <c r="AD2" s="91">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="91"/>
+      <c r="AG2" s="94"/>
+      <c r="AH2" s="91"/>
+      <c r="AI2" s="94"/>
+      <c r="AJ2" s="91"/>
+      <c r="AK2" s="95"/>
+      <c r="AL2" s="91">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AM2" s="10">
+      <c r="AM2" s="91">
         <f>AL2*-1</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="66"/>
+      <c r="AN2" s="96"/>
+      <c r="AO2" s="97"/>
       <c r="AP2" s="4"/>
       <c r="AQ2" s="4"/>
     </row>
-    <row r="3" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:43" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="11">
         <v>2010</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="46">
         <v>2030</v>
       </c>
-      <c r="E3" s="53">
-        <v>0</v>
-      </c>
-      <c r="F3" s="67">
-        <v>0</v>
-      </c>
-      <c r="G3" s="54">
+      <c r="E3" s="52">
+        <v>0</v>
+      </c>
+      <c r="F3" s="47">
+        <v>0</v>
+      </c>
+      <c r="G3" s="51">
         <v>100</v>
       </c>
-      <c r="H3" s="68">
-        <v>0</v>
-      </c>
-      <c r="I3" s="68">
-        <v>0</v>
-      </c>
-      <c r="J3" s="52">
+      <c r="H3" s="63">
+        <v>0</v>
+      </c>
+      <c r="I3" s="63">
+        <v>0</v>
+      </c>
+      <c r="J3" s="49">
         <v>1000</v>
       </c>
-      <c r="K3" s="71">
-        <v>0</v>
-      </c>
-      <c r="L3" s="72">
-        <v>0</v>
-      </c>
-      <c r="M3" s="53">
+      <c r="K3" s="63">
+        <v>0</v>
+      </c>
+      <c r="L3" s="64">
+        <v>0</v>
+      </c>
+      <c r="M3" s="52">
         <v>1</v>
       </c>
-      <c r="N3" s="53">
+      <c r="N3" s="52">
         <v>1</v>
       </c>
-      <c r="O3" s="35"/>
-      <c r="P3" s="48"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="45"/>
       <c r="Q3" s="8" t="s">
         <v>84</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="S3" s="42">
+      <c r="S3" s="39">
         <v>1</v>
       </c>
-      <c r="T3" s="71">
-        <v>0</v>
-      </c>
-      <c r="U3" s="72">
-        <v>0</v>
-      </c>
-      <c r="V3" s="42"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="13">
+      <c r="T3" s="63">
+        <v>0</v>
+      </c>
+      <c r="U3" s="64">
+        <v>0</v>
+      </c>
+      <c r="V3" s="39"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="10">
         <v>1.3</v>
       </c>
-      <c r="Z3" s="22">
+      <c r="Z3" s="19">
         <v>0.1</v>
       </c>
-      <c r="AA3" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="13">
+      <c r="AA3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="10">
         <v>0.72</v>
       </c>
-      <c r="AC3" s="18">
+      <c r="AC3" s="16">
         <v>1</v>
       </c>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="13"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="10"/>
       <c r="AM3" s="10"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="66"/>
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="60"/>
       <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
     </row>
-    <row r="4" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="1:43" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>2010</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="46">
         <v>2030</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="52">
         <v>300</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="47">
         <v>0.02</v>
       </c>
-      <c r="G4" s="54">
+      <c r="G4" s="51">
         <v>1</v>
       </c>
-      <c r="H4" s="68">
-        <v>0</v>
-      </c>
-      <c r="I4" s="68">
-        <v>0</v>
-      </c>
-      <c r="J4" s="52">
+      <c r="H4" s="63">
+        <v>0</v>
+      </c>
+      <c r="I4" s="63">
+        <v>0</v>
+      </c>
+      <c r="J4" s="49">
         <v>10</v>
       </c>
-      <c r="K4" s="69">
-        <v>0</v>
-      </c>
-      <c r="L4" s="70">
-        <v>0</v>
-      </c>
-      <c r="M4" s="53">
+      <c r="K4" s="63">
+        <v>0</v>
+      </c>
+      <c r="L4" s="64">
+        <v>0</v>
+      </c>
+      <c r="M4" s="52">
         <v>20</v>
       </c>
-      <c r="N4" s="53">
+      <c r="N4" s="52">
         <v>1</v>
       </c>
-      <c r="O4" s="35" t="s">
+      <c r="O4" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="P4" s="48" t="s">
+      <c r="P4" s="45" t="s">
         <v>42</v>
       </c>
       <c r="Q4" s="8" t="s">
@@ -2120,195 +2172,195 @@
       <c r="R4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="S4" s="42">
+      <c r="S4" s="39">
         <v>1</v>
       </c>
-      <c r="T4" s="69">
-        <v>0</v>
-      </c>
-      <c r="U4" s="70">
-        <v>0</v>
-      </c>
-      <c r="V4" s="42"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="13">
+      <c r="T4" s="63">
+        <v>0</v>
+      </c>
+      <c r="U4" s="64">
+        <v>0</v>
+      </c>
+      <c r="V4" s="39"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="10">
         <v>1.4</v>
       </c>
-      <c r="Z4" s="22">
+      <c r="Z4" s="19">
         <v>0.3</v>
       </c>
-      <c r="AA4" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="13">
+      <c r="AA4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="10">
         <v>0.72</v>
       </c>
-      <c r="AC4" s="18">
+      <c r="AC4" s="16">
         <v>1</v>
       </c>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="62"/>
-      <c r="AL4" s="13"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="10"/>
       <c r="AM4" s="10"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="66"/>
+      <c r="AN4" s="59"/>
+      <c r="AO4" s="60"/>
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
     </row>
-    <row r="5" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="1:43" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <v>2010</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="46">
         <v>2030</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="52">
         <v>2300</v>
       </c>
-      <c r="F5" s="67">
-        <v>0</v>
-      </c>
-      <c r="G5" s="54">
+      <c r="F5" s="47">
+        <v>0</v>
+      </c>
+      <c r="G5" s="51">
         <v>97</v>
       </c>
-      <c r="H5" s="68">
-        <v>0</v>
-      </c>
-      <c r="I5" s="68">
-        <v>0</v>
-      </c>
-      <c r="J5" s="52">
+      <c r="H5" s="63">
+        <v>0</v>
+      </c>
+      <c r="I5" s="63">
+        <v>0</v>
+      </c>
+      <c r="J5" s="49">
         <v>56.94</v>
       </c>
-      <c r="K5" s="71">
-        <v>0</v>
-      </c>
-      <c r="L5" s="72">
-        <v>0</v>
-      </c>
-      <c r="M5" s="53">
+      <c r="K5" s="63">
+        <v>0</v>
+      </c>
+      <c r="L5" s="64">
+        <v>0</v>
+      </c>
+      <c r="M5" s="52">
         <v>30</v>
       </c>
-      <c r="N5" s="53">
+      <c r="N5" s="52">
         <v>1</v>
       </c>
-      <c r="O5" s="35" t="s">
+      <c r="O5" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="P5" s="48" t="s">
+      <c r="P5" s="45" t="s">
         <v>40</v>
       </c>
       <c r="Q5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="R5" s="48" t="s">
+      <c r="R5" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="S5" s="42">
+      <c r="S5" s="39">
         <v>0.32</v>
       </c>
-      <c r="T5" s="71">
-        <v>0</v>
-      </c>
-      <c r="U5" s="72">
-        <v>0</v>
-      </c>
-      <c r="V5" s="42"/>
-      <c r="W5" s="63"/>
-      <c r="X5" s="64"/>
-      <c r="Y5" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="13">
+      <c r="T5" s="63">
+        <v>0</v>
+      </c>
+      <c r="U5" s="64">
+        <v>0</v>
+      </c>
+      <c r="V5" s="39"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="10">
         <v>0.1</v>
       </c>
-      <c r="AB5" s="13">
+      <c r="AB5" s="10">
         <v>0.72</v>
       </c>
-      <c r="AC5" s="18">
+      <c r="AC5" s="16">
         <v>1</v>
       </c>
-      <c r="AD5" s="13">
+      <c r="AD5" s="10">
         <v>1</v>
       </c>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="62"/>
-      <c r="AL5" s="13">
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" ref="AM5" si="0">AL5*-1</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="AN5" s="65"/>
-      <c r="AO5" s="66"/>
+      <c r="AN5" s="59"/>
+      <c r="AO5" s="60"/>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4"/>
     </row>
-    <row r="6" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="1:43" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="11">
         <v>2010</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="46">
         <v>2030</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="52">
         <v>1</v>
       </c>
-      <c r="F6" s="67">
-        <v>0</v>
-      </c>
-      <c r="G6" s="54">
-        <v>0</v>
-      </c>
-      <c r="H6" s="68">
-        <v>0</v>
-      </c>
-      <c r="I6" s="68">
-        <v>0</v>
-      </c>
-      <c r="J6" s="52">
-        <v>0</v>
-      </c>
-      <c r="K6" s="59">
-        <v>0</v>
-      </c>
-      <c r="L6" s="60">
-        <v>0</v>
-      </c>
-      <c r="M6" s="53">
+      <c r="F6" s="47">
+        <v>0</v>
+      </c>
+      <c r="G6" s="51">
+        <v>0</v>
+      </c>
+      <c r="H6" s="63">
+        <v>0</v>
+      </c>
+      <c r="I6" s="63">
+        <v>0</v>
+      </c>
+      <c r="J6" s="49">
+        <v>0</v>
+      </c>
+      <c r="K6" s="39">
+        <v>0</v>
+      </c>
+      <c r="L6" s="54">
+        <v>0</v>
+      </c>
+      <c r="M6" s="52">
         <v>1</v>
       </c>
-      <c r="N6" s="53">
+      <c r="N6" s="52">
         <v>1</v>
       </c>
-      <c r="O6" s="35" t="s">
+      <c r="O6" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="48" t="s">
+      <c r="P6" s="45" t="s">
         <v>103</v>
       </c>
       <c r="Q6" s="8" t="s">
@@ -2317,437 +2369,437 @@
       <c r="R6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="42">
+      <c r="S6" s="39">
         <v>1</v>
       </c>
-      <c r="T6" s="42">
-        <v>0</v>
-      </c>
-      <c r="U6" s="62">
-        <v>0</v>
-      </c>
-      <c r="V6" s="42"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="13">
+      <c r="T6" s="39">
+        <v>0</v>
+      </c>
+      <c r="U6" s="56">
+        <v>0</v>
+      </c>
+      <c r="V6" s="39"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="10">
         <v>0.72</v>
       </c>
-      <c r="AC6" s="18">
+      <c r="AC6" s="16">
         <v>1</v>
       </c>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="62"/>
-      <c r="AL6" s="13"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="56"/>
+      <c r="AL6" s="10"/>
       <c r="AM6" s="10"/>
-      <c r="AN6" s="65"/>
-      <c r="AO6" s="66"/>
+      <c r="AN6" s="59"/>
+      <c r="AO6" s="60"/>
       <c r="AP6" s="4"/>
       <c r="AQ6" s="4"/>
     </row>
-    <row r="7" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="48"/>
+    <row r="7" spans="1:43" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="45"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="63"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="62"/>
-      <c r="AL7" s="13"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="10"/>
       <c r="AM7" s="10"/>
-      <c r="AN7" s="65"/>
-      <c r="AO7" s="66"/>
+      <c r="AN7" s="59"/>
+      <c r="AO7" s="60"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
     </row>
-    <row r="8" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="48"/>
+    <row r="8" spans="1:43" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="45"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="63"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="62"/>
-      <c r="AL8" s="13"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="10"/>
       <c r="AM8" s="10"/>
-      <c r="AN8" s="65"/>
-      <c r="AO8" s="66"/>
+      <c r="AN8" s="59"/>
+      <c r="AO8" s="60"/>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="F9" s="50"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
+    <row r="9" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F9" s="47"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="42"/>
+      <c r="S9" s="39"/>
       <c r="U9" s="8"/>
-      <c r="W9" s="63"/>
-      <c r="X9" s="63"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
       <c r="AK9" s="8"/>
-      <c r="AN9" s="65"/>
-      <c r="AO9" s="65"/>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="F10" s="50"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
+      <c r="AN9" s="59"/>
+      <c r="AO9" s="59"/>
+    </row>
+    <row r="10" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F10" s="47"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="42"/>
+      <c r="S10" s="39"/>
       <c r="U10" s="8"/>
-      <c r="W10" s="63"/>
-      <c r="X10" s="63"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="57"/>
       <c r="AK10" s="8"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="65"/>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="F11" s="50"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
+      <c r="AN10" s="59"/>
+      <c r="AO10" s="59"/>
+    </row>
+    <row r="11" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F11" s="47"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="42"/>
+      <c r="S11" s="39"/>
       <c r="U11" s="8"/>
-      <c r="W11" s="63"/>
-      <c r="X11" s="63"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
       <c r="AK11" s="8"/>
-      <c r="AN11" s="65"/>
-      <c r="AO11" s="65"/>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="F12" s="50"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
+      <c r="AN11" s="59"/>
+      <c r="AO11" s="59"/>
+    </row>
+    <row r="12" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F12" s="47"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="42"/>
+      <c r="S12" s="39"/>
       <c r="U12" s="8"/>
-      <c r="W12" s="63"/>
-      <c r="X12" s="63"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
       <c r="AK12" s="8"/>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="65"/>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="F13" s="50"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
+      <c r="AN12" s="59"/>
+      <c r="AO12" s="59"/>
+    </row>
+    <row r="13" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F13" s="47"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="42"/>
+      <c r="S13" s="39"/>
       <c r="U13" s="8"/>
-      <c r="W13" s="63"/>
-      <c r="X13" s="63"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
       <c r="AK13" s="8"/>
-      <c r="AN13" s="65"/>
-      <c r="AO13" s="65"/>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="F14" s="50"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
+      <c r="AN13" s="59"/>
+      <c r="AO13" s="59"/>
+    </row>
+    <row r="14" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F14" s="47"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="42"/>
+      <c r="S14" s="39"/>
       <c r="U14" s="8"/>
-      <c r="W14" s="63"/>
-      <c r="X14" s="63"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
       <c r="AK14" s="8"/>
-      <c r="AN14" s="65"/>
-      <c r="AO14" s="65"/>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="F15" s="50"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
+      <c r="AN14" s="59"/>
+      <c r="AO14" s="59"/>
+    </row>
+    <row r="15" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F15" s="47"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="5"/>
-      <c r="S15" s="42"/>
+      <c r="S15" s="39"/>
       <c r="U15" s="8"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="63"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
       <c r="AK15" s="8"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="F16" s="50"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
+      <c r="AN15" s="59"/>
+      <c r="AO15" s="59"/>
+    </row>
+    <row r="16" spans="1:43" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F16" s="47"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="42"/>
+      <c r="S16" s="39"/>
       <c r="U16" s="8"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="63"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
       <c r="AK16" s="8"/>
-      <c r="AN16" s="65"/>
-      <c r="AO16" s="65"/>
-    </row>
-    <row r="17" spans="6:41" x14ac:dyDescent="0.3">
-      <c r="F17" s="50"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
+      <c r="AN16" s="59"/>
+      <c r="AO16" s="59"/>
+    </row>
+    <row r="17" spans="6:41" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F17" s="47"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="5"/>
-      <c r="S17" s="42"/>
+      <c r="S17" s="39"/>
       <c r="U17" s="8"/>
-      <c r="W17" s="63"/>
-      <c r="X17" s="63"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
       <c r="AK17" s="8"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="65"/>
-    </row>
-    <row r="18" spans="6:41" x14ac:dyDescent="0.3">
-      <c r="F18" s="50"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
+      <c r="AN17" s="59"/>
+      <c r="AO17" s="59"/>
+    </row>
+    <row r="18" spans="6:41" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F18" s="47"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="5"/>
-      <c r="S18" s="42"/>
+      <c r="S18" s="39"/>
       <c r="U18" s="8"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
       <c r="AK18" s="8"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="65"/>
-    </row>
-    <row r="19" spans="6:41" x14ac:dyDescent="0.3">
-      <c r="F19" s="50"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
+      <c r="AN18" s="59"/>
+      <c r="AO18" s="59"/>
+    </row>
+    <row r="19" spans="6:41" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F19" s="47"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="42"/>
+      <c r="S19" s="39"/>
       <c r="U19" s="8"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
       <c r="AK19" s="8"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-    </row>
-    <row r="20" spans="6:41" x14ac:dyDescent="0.3">
-      <c r="F20" s="50"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
+      <c r="AN19" s="59"/>
+      <c r="AO19" s="59"/>
+    </row>
+    <row r="20" spans="6:41" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F20" s="47"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="42"/>
+      <c r="S20" s="39"/>
       <c r="U20" s="8"/>
-      <c r="W20" s="63"/>
-      <c r="X20" s="63"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
       <c r="AK20" s="8"/>
-      <c r="AN20" s="65"/>
-      <c r="AO20" s="65"/>
-    </row>
-    <row r="21" spans="6:41" x14ac:dyDescent="0.3">
-      <c r="F21" s="50"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
+      <c r="AN20" s="59"/>
+      <c r="AO20" s="59"/>
+    </row>
+    <row r="21" spans="6:41" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F21" s="47"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="42"/>
+      <c r="S21" s="39"/>
       <c r="U21" s="8"/>
-      <c r="W21" s="63"/>
-      <c r="X21" s="63"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
       <c r="AK21" s="8"/>
-      <c r="AN21" s="65"/>
-      <c r="AO21" s="65"/>
-    </row>
-    <row r="22" spans="6:41" x14ac:dyDescent="0.3">
-      <c r="F22" s="50"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
+      <c r="AN21" s="59"/>
+      <c r="AO21" s="59"/>
+    </row>
+    <row r="22" spans="6:41" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F22" s="47"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="5"/>
-      <c r="S22" s="42"/>
+      <c r="S22" s="39"/>
       <c r="U22" s="8"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="63"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
       <c r="AK22" s="8"/>
-      <c r="AN22" s="65"/>
-      <c r="AO22" s="65"/>
-    </row>
-    <row r="23" spans="6:41" x14ac:dyDescent="0.3">
-      <c r="F23" s="50"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
+      <c r="AN22" s="59"/>
+      <c r="AO22" s="59"/>
+    </row>
+    <row r="23" spans="6:41" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F23" s="47"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="5"/>
-      <c r="S23" s="42"/>
+      <c r="S23" s="39"/>
       <c r="U23" s="8"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="63"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
       <c r="AK23" s="8"/>
-      <c r="AN23" s="65"/>
-      <c r="AO23" s="65"/>
-    </row>
-    <row r="24" spans="6:41" x14ac:dyDescent="0.3">
+      <c r="AN23" s="59"/>
+      <c r="AO23" s="59"/>
+    </row>
+    <row r="24" spans="6:41" ht="14.4" x14ac:dyDescent="0.3">
       <c r="P24" s="5"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="5"/>
-      <c r="S24" s="42"/>
+      <c r="S24" s="39"/>
       <c r="U24" s="8"/>
-      <c r="W24" s="63"/>
-      <c r="X24" s="63"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
       <c r="AK24" s="8"/>
-      <c r="AN24" s="65"/>
-      <c r="AO24" s="65"/>
-    </row>
-    <row r="25" spans="6:41" x14ac:dyDescent="0.3">
-      <c r="S25" s="42"/>
+      <c r="AN24" s="59"/>
+      <c r="AO24" s="59"/>
+    </row>
+    <row r="25" spans="6:41" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="S25" s="39"/>
       <c r="U25" s="10"/>
-      <c r="W25" s="63"/>
-      <c r="X25" s="63"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
       <c r="AK25" s="10"/>
-      <c r="AN25" s="65"/>
-      <c r="AO25" s="65"/>
-    </row>
-    <row r="26" spans="6:41" x14ac:dyDescent="0.3">
-      <c r="S26" s="42"/>
+      <c r="AN25" s="59"/>
+      <c r="AO25" s="59"/>
+    </row>
+    <row r="26" spans="6:41" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="S26" s="39"/>
       <c r="U26" s="10"/>
-      <c r="W26" s="63"/>
-      <c r="X26" s="63"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
       <c r="AK26" s="10"/>
-      <c r="AN26" s="65"/>
-      <c r="AO26" s="65"/>
+      <c r="AN26" s="59"/>
+      <c r="AO26" s="59"/>
     </row>
   </sheetData>
   <dataValidations xWindow="64" yWindow="506" count="9">
@@ -2778,7 +2830,7 @@
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="9" bestFit="1" customWidth="1"/>
@@ -2786,20 +2838,20 @@
     <col min="6" max="16384" width="9.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="34" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2858,7 +2910,7 @@
       <c r="A5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -2875,7 +2927,7 @@
       <c r="A6" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>102</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2927,7 +2979,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
@@ -2936,18 +2988,18 @@
     <col min="6" max="16384" width="11.5546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2959,39 +3011,39 @@
       <c r="C2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="40"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="40"/>
+      <c r="D4" s="37"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="40"/>
+      <c r="D5" s="37"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5">
@@ -3025,7 +3077,7 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
@@ -3033,10 +3085,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="35" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3078,17 +3130,17 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="35" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3135,12 +3187,12 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="4.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" style="43" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -3148,104 +3200,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="21">
         <v>1</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21">
         <v>-0.1</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="21">
         <v>1</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="21">
         <v>1</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="21">
         <v>0.4</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="43">
         <v>1</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="43">
         <v>0.9</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="43">
         <v>0.4</v>
       </c>
       <c r="F4" t="s">
@@ -3254,7 +3306,7 @@
       <c r="G4" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="23" t="s">
         <v>103</v>
       </c>
       <c r="I4" t="s">
@@ -3310,32 +3362,32 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="83" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:10" s="75" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="74" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -3348,18 +3400,18 @@
       <c r="D2" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="84">
+      <c r="E2" s="76">
         <v>1872.846</v>
       </c>
-      <c r="F2" s="85">
+      <c r="F2" s="77">
         <v>0.8</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="75"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="67"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -3372,271 +3424,271 @@
       <c r="D3" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="84">
+      <c r="E3" s="76">
         <v>75.012</v>
       </c>
-      <c r="F3" s="85">
+      <c r="F3" s="77">
         <v>0.9</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="75"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="75"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="75"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="75"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="76"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="75"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="75"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="76"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="75"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="75"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="76"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="75"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="76"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="75"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="76"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="75"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="76"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="75"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="76"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="75"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="76"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="75"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="76"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="75"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="76"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="75"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="76"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="75"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="76"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="75"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="76"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="75"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="76"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="75"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="76"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="75"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="75"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="81"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="67"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="67"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="67"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="67"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="67"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="67"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="67"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="67"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="67"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="67"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="67"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="67"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="68"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="67"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="67"/>
+    </row>
+    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="67"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="68"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="67"/>
+    </row>
+    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="67"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="67"/>
+    </row>
+    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="68"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="67"/>
+    </row>
+    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="68"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="67"/>
+    </row>
+    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="68"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="67"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="68"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="67"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="73"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:F24">
